--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33_no_assign.xlsx
@@ -50,19 +50,28 @@
     <t>Submissions (% of course total)</t>
   </si>
   <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
     <t>Largest period of inactivity (h)</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
   </si>
   <si>
     <t>Resources viewed</t>
@@ -71,39 +80,30 @@
     <t>Clicks on course</t>
   </si>
   <si>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
     <t>Number of days</t>
   </si>
   <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Number of clicks</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Clicks on campus</t>
-  </si>
-  <si>
     <t>Assignments viewed</t>
   </si>
   <si>
@@ -128,25 +128,25 @@
     <t>Clicks on folder</t>
   </si>
   <si>
+    <t>Start of Session 6 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
     <t>Start of Session 7 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 6 (%)</t>
   </si>
   <si>
     <t>Clicks on forum</t>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -902,7 +902,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1931,12 +1931,12 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
@@ -2187,27 +2187,27 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -2256,10 +2256,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -2288,10 +2288,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -2300,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2315,27 +2315,27 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2352,22 +2352,22 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2411,12 +2411,12 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B27" t="b">
         <v>0</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33_no_assign.xlsx
@@ -50,63 +50,66 @@
     <t>Submissions (% of course total)</t>
   </si>
   <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>On/off campus click ratio</t>
+  </si>
+  <si>
     <t>Average session duration (min)</t>
   </si>
   <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
     <t>Clicks (% of course total)</t>
   </si>
   <si>
-    <t>On/off campus click ratio</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>Largest period of inactivity (h)</t>
+    <t>Quizzes started</t>
+  </si>
+  <si>
+    <t>Resources viewed</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Number of clicks</t>
+  </si>
+  <si>
+    <t>Days with no interaction (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
   </si>
   <si>
     <t>Total time online (min)</t>
   </si>
   <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Resources viewed</t>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Clicks on course</t>
   </si>
   <si>
-    <t>Quizzes started</t>
-  </si>
-  <si>
     <t>Clicks on campus</t>
   </si>
   <si>
-    <t>Clicks per session</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Number of clicks</t>
-  </si>
-  <si>
-    <t>Days with no interaction (%)</t>
-  </si>
-  <si>
     <t>Assignments viewed</t>
   </si>
   <si>
+    <t>Start of Session 5 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
@@ -128,12 +131,12 @@
     <t>Clicks on folder</t>
   </si>
   <si>
+    <t>Start of Session 8 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 6 (%)</t>
   </si>
   <si>
-    <t>Start of Session 5 (%)</t>
-  </si>
-  <si>
     <t>Number of sessions</t>
   </si>
   <si>
@@ -141,9 +144,6 @@
   </si>
   <si>
     <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 8 (%)</t>
   </si>
   <si>
     <t>Start of Session 7 (%)</t>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -1190,10 +1190,10 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1225,16 +1225,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1712,7 +1712,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1904,16 +1904,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2059,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2091,18 +2091,18 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2123,18 +2123,18 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2155,18 +2155,18 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2187,27 +2187,27 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -2219,24 +2219,24 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -2251,18 +2251,18 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -2283,24 +2283,24 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -2315,18 +2315,18 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -2352,16 +2352,16 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -2379,27 +2379,27 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -2411,12 +2411,12 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2512,16 +2512,16 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>

--- a/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33_no_assign.xlsx
+++ b/Data/Modeling Stage/Feature Selection/R_Gonz_feature_selection_Date_threshold_33_no_assign.xlsx
@@ -47,64 +47,82 @@
     <t>Feature</t>
   </si>
   <si>
+    <t>Clicks (% of course total)</t>
+  </si>
+  <si>
+    <t>Days with no interaction</t>
+  </si>
+  <si>
+    <t>Largest period of inactivity (h)</t>
+  </si>
+  <si>
+    <t>Average session duration (min)</t>
+  </si>
+  <si>
     <t>Submissions (% of course total)</t>
   </si>
   <si>
-    <t>Largest period of inactivity (h)</t>
-  </si>
-  <si>
     <t>On/off campus click ratio</t>
   </si>
   <si>
-    <t>Average session duration (min)</t>
-  </si>
-  <si>
-    <t>Days with no interaction</t>
-  </si>
-  <si>
-    <t>Clicks (% of course total)</t>
+    <t>Total time online (min)</t>
+  </si>
+  <si>
+    <t>Start of Session 1 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 2 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 3 (%)</t>
   </si>
   <si>
     <t>Quizzes started</t>
   </si>
   <si>
+    <t>Clicks per session</t>
+  </si>
+  <si>
+    <t>Clicks per day</t>
+  </si>
+  <si>
+    <t>Number of days</t>
+  </si>
+  <si>
     <t>Resources viewed</t>
   </si>
   <si>
-    <t>Number of days</t>
-  </si>
-  <si>
-    <t>Clicks per day</t>
-  </si>
-  <si>
-    <t>Clicks per session</t>
+    <t>Clicks on course</t>
   </si>
   <si>
     <t>Number of clicks</t>
   </si>
   <si>
+    <t>Clicks on campus</t>
+  </si>
+  <si>
+    <t>Assignments viewed</t>
+  </si>
+  <si>
     <t>Days with no interaction (%)</t>
   </si>
   <si>
-    <t>Start of Session 2 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 1 (%)</t>
-  </si>
-  <si>
-    <t>Total time online (min)</t>
-  </si>
-  <si>
-    <t>Start of Session 3 (%)</t>
-  </si>
-  <si>
-    <t>Clicks on course</t>
-  </si>
-  <si>
-    <t>Clicks on campus</t>
-  </si>
-  <si>
-    <t>Assignments viewed</t>
+    <t>Files downloaded</t>
+  </si>
+  <si>
+    <t>Forum posts</t>
+  </si>
+  <si>
+    <t>Discussions viewed</t>
+  </si>
+  <si>
+    <t>Links viewed</t>
+  </si>
+  <si>
+    <t>Assignments submitted</t>
+  </si>
+  <si>
+    <t>Clicks on folder</t>
   </si>
   <si>
     <t>Start of Session 5 (%)</t>
@@ -113,40 +131,22 @@
     <t>Start of Session 4 (%)</t>
   </si>
   <si>
-    <t>Files downloaded</t>
-  </si>
-  <si>
-    <t>Forum posts</t>
-  </si>
-  <si>
-    <t>Links viewed</t>
-  </si>
-  <si>
-    <t>Discussions viewed</t>
-  </si>
-  <si>
-    <t>Assignments submitted</t>
-  </si>
-  <si>
-    <t>Clicks on folder</t>
+    <t>Number of sessions</t>
+  </si>
+  <si>
+    <t>Start of Session 10 (%)</t>
+  </si>
+  <si>
+    <t>Start of Session 9 (%)</t>
   </si>
   <si>
     <t>Start of Session 8 (%)</t>
   </si>
   <si>
+    <t>Start of Session 7 (%)</t>
+  </si>
+  <si>
     <t>Start of Session 6 (%)</t>
-  </si>
-  <si>
-    <t>Number of sessions</t>
-  </si>
-  <si>
-    <t>Start of Session 10 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 9 (%)</t>
-  </si>
-  <si>
-    <t>Start of Session 7 (%)</t>
   </si>
   <si>
     <t>Clicks on forum</t>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -748,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -1001,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -1126,16 +1126,16 @@
         <v>28</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
@@ -1158,16 +1158,16 @@
         <v>29</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1190,19 +1190,19 @@
         <v>30</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1225,16 +1225,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1744,7 +1744,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1904,16 +1904,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B10" t="b">
         <v>1</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -2059,21 +2059,21 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -2091,18 +2091,18 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -2123,18 +2123,18 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -2155,18 +2155,18 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
       </c>
       <c r="C16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -2187,12 +2187,12 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -2219,24 +2219,24 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
@@ -2251,18 +2251,18 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -2283,21 +2283,21 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
@@ -2352,13 +2352,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2379,12 +2379,12 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B24" t="b">
         <v>0</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B25" t="b">
         <v>0</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" t="b">
         <v>0</v>
@@ -2512,13 +2512,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" t="b">
         <v>0</v>
@@ -2576,7 +2576,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B29" t="b">
         <v>0</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B30" t="b">
         <v>0</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="b">
         <v>0</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="b">
         <v>0</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="b">
         <v>0</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" t="b">
         <v>0</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
